--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +608,165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43320</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>RANK(F2,F2:F6,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43321</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>RANK(F3,F2:F6,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43322</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>RANK(F4,F2:F6,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43323</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="0">RANK(F5,F4:F8,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43323</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="1">RANK(F6,F6:F10,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
@@ -1234,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,4 +1528,141 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43320</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43321</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43323</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43323</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +164,52 @@
   </si>
   <si>
     <t>销售ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>RANK函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK.AVG函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK.EQ函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张通</t>
+  </si>
+  <si>
+    <t>李谷</t>
+  </si>
+  <si>
+    <t>孙凤</t>
+  </si>
+  <si>
+    <t>赵恒</t>
+  </si>
+  <si>
+    <t>王娜</t>
+  </si>
+  <si>
+    <t>李斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +230,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -208,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,6 +272,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -610,10 +669,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,7 +680,7 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -641,7 +700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -660,12 +719,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>RANK(F2,F2:F6,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -684,12 +739,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f>RANK(F3,F2:F6,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -708,12 +759,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <f>RANK(F4,F2:F6,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -732,12 +779,8 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5" si="0">RANK(F5,F4:F8,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -755,15 +798,259 @@
       </c>
       <c r="F6">
         <v>3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6" si="1">RANK(F6,F6:F10,1)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C8" si="0">RANK(B2,$B$2:$B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D8" si="1">_xlfn.RANK.AVG(B2,$B$2:$B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E8" si="2">_xlfn.RANK.EQ(B2,$B$2:$B$8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E8">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,16 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +213,99 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2014</t>
+  </si>
+  <si>
+    <t>Sale2015</t>
+  </si>
+  <si>
+    <t>Sale2016</t>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,12 +768,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -693,7 +789,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
@@ -803,6 +899,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -986,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1051,6 +1148,355 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>5050</v>
+      </c>
+      <c r="E2">
+        <v>5050</v>
+      </c>
+      <c r="F2">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>3500</v>
+      </c>
+      <c r="D3">
+        <v>3800</v>
+      </c>
+      <c r="E3">
+        <v>3800</v>
+      </c>
+      <c r="F3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>2300</v>
+      </c>
+      <c r="D4">
+        <v>2900</v>
+      </c>
+      <c r="E4">
+        <v>2900</v>
+      </c>
+      <c r="F4">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1452,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,16 @@
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,14 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sale2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,6 +301,26 @@
   </si>
   <si>
     <t>Sale2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1322,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,10 +1335,10 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1376,7 +1391,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>5050</v>
@@ -1390,7 +1405,7 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>3800</v>
@@ -1418,7 +1433,7 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>5050</v>
@@ -1432,7 +1447,7 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>3800</v>
@@ -1446,7 +1461,7 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>2900</v>
@@ -1460,7 +1475,7 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>5050</v>
@@ -1474,7 +1489,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>3800</v>
@@ -1488,7 +1503,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>2900</v>
@@ -1497,6 +1512,210 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1898,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
     <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Sheet19!$A$1:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +325,86 @@
   </si>
   <si>
     <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否省会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1640,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1710,6 +1794,184 @@
       </c>
       <c r="C6">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>59224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>55295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>46035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>22557</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Data/test01.xlsx
+++ b/Data/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
     <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Sheet19!$A$1:$G$7</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="97">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +407,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,8 +418,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -459,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -470,6 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1664,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1807,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,6 +2072,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>59224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>55295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>46035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>22557</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>59224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>55295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>46035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>22557</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
